--- a/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
+++ b/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\Nam3_HK1\CSDL_SQL_Plus\Baitap\!TieuLuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B5C41-B68D-406E-A0F0-382C1F75FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3298A3F-385F-4E66-8D1E-8BBFB0F7CB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{88E02BB5-18DC-4D8D-A50A-9D70CEF122C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Record Size (R)</t>
   </si>
@@ -65,15 +65,9 @@
     <t>Number of Block needed for the file (b = [r/bfr]+)</t>
   </si>
   <si>
-    <t>Block Point (P)</t>
-  </si>
-  <si>
     <t>To perform a binary search on the index file = [log2bi]+ +1</t>
   </si>
   <si>
-    <t>The size of each index Entry (Ri = Vssn + P or Pr)</t>
-  </si>
-  <si>
     <t>The blocking factor for the index (bfri = [B/Ri]-)</t>
   </si>
   <si>
@@ -81,6 +75,30 @@
   </si>
   <si>
     <t>The number of index blocks is hence (bi = [ri/bfri]+)</t>
+  </si>
+  <si>
+    <t>The ordering key field</t>
+  </si>
+  <si>
+    <t>Block Pointer</t>
+  </si>
+  <si>
+    <t>Block Pointer (P)</t>
+  </si>
+  <si>
+    <t>Nondense</t>
+  </si>
+  <si>
+    <t>The size of each index Entry (Ri = Vssn + P)</t>
+  </si>
+  <si>
+    <t>The size of each index Entry (Ri = Vssn + Pr)</t>
+  </si>
+  <si>
+    <t>Dense</t>
+  </si>
+  <si>
+    <t>The total number of index entries (ri = b)</t>
   </si>
 </sst>
 </file>
@@ -102,7 +120,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +139,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,11 +169,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,6 +198,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,20 +523,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7EAA01-9FA6-4241-AC58-07A4C2D419DD}">
-  <dimension ref="A29:F68"/>
+  <dimension ref="A28:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -504,6 +550,14 @@
     <col min="17" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
@@ -512,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
@@ -535,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E30" s="4">
         <v>9</v>
@@ -556,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" s="4">
         <v>9</v>
@@ -576,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E32" s="4">
         <v>9</v>
@@ -651,12 +705,6 @@
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -664,20 +712,12 @@
         <v>3</v>
       </c>
       <c r="B46" s="4">
-        <f>CEILING(F30/A46, 1)</f>
+        <f t="shared" ref="B46:B55" si="0">CEILING(F30/A46, 1)</f>
         <v>10000</v>
       </c>
       <c r="C46" s="4">
-        <f>CEILING(LOG(B46,2), 1)</f>
+        <f t="shared" ref="C46:C55" si="1">CEILING(LOG(B46,2), 1)</f>
         <v>14</v>
-      </c>
-      <c r="D46" s="4">
-        <f>E30+C30</f>
-        <v>16</v>
-      </c>
-      <c r="E46" s="4">
-        <f>FLOOR(B30/D46, 1)</f>
-        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -686,393 +726,708 @@
         <v>4</v>
       </c>
       <c r="B47" s="4">
-        <f>CEILING(F31/A47, 1)</f>
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="C47" s="4">
-        <f>CEILING(LOG(B47,2), 1)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D47" s="4">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" ref="A48:A55" si="2">FLOOR(B32/A32, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B49" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C49" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B50" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C50" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B51" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B52" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C52" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B53" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C53" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B54" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C54" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B55" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C55" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f>E30+C30</f>
+        <v>16</v>
+      </c>
+      <c r="B60" s="4">
+        <f>FLOOR(B30/A60, 1)</f>
+        <v>32</v>
+      </c>
+      <c r="C60" s="4">
+        <f>B46</f>
+        <v>10000</v>
+      </c>
+      <c r="D60" s="4">
+        <f>CEILING(C60/B60, 1)</f>
+        <v>313</v>
+      </c>
+      <c r="E60" s="4">
+        <f>CEILING(LOG(D60, 2), 1) +1</f>
+        <v>10</v>
+      </c>
+      <c r="F60" s="4">
+        <f>B46/2</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <f>E31+C31</f>
         <v>15</v>
       </c>
-      <c r="E47" s="4">
-        <f>FLOOR(B31/D47, 1)</f>
+      <c r="B61" s="4">
+        <f>FLOOR(B31/A61, 1)</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <f t="shared" ref="A48:A55" si="0">FLOOR(B32/A32, 1)</f>
-        <v>10</v>
-      </c>
-      <c r="B48" s="4">
-        <f>CEILING(F32/A48, 1)</f>
-        <v>3000</v>
-      </c>
-      <c r="C48" s="4">
-        <f>CEILING(LOG(B48,2), 1)</f>
-        <v>12</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C61" s="4">
+        <f>B47</f>
+        <v>7500</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" ref="D61:D69" si="3">CEILING(C61/B61, 1)</f>
+        <v>221</v>
+      </c>
+      <c r="E61" s="4">
+        <f>CEILING(LOG(D61, 2), 1) +1</f>
+        <v>9</v>
+      </c>
+      <c r="F61" s="4">
+        <f>B47/2</f>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <f>E32+C32</f>
         <v>15</v>
       </c>
-      <c r="E48" s="4">
-        <f>FLOOR(B32/D48, 1)</f>
+      <c r="B62" s="4">
+        <f>FLOOR(B32/A62, 1)</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B49" s="4" t="e">
-        <f>CEILING(F33/A49, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C49" s="4" t="e">
-        <f>CEILING(LOG(B49,2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="C62" s="4">
+        <f>B48</f>
+        <v>3000</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="E62" s="4">
+        <f>CEILING(LOG(D62, 2), 1) +1</f>
+        <v>7</v>
+      </c>
+      <c r="F62" s="4">
+        <f>B48/2</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <f>E33+C33</f>
         <v>0</v>
       </c>
-      <c r="E49" s="4" t="e">
-        <f>FLOOR(B33/D49, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B50" s="4" t="e">
-        <f>CEILING(F34/A50, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C50" s="4" t="e">
-        <f>CEILING(LOG(B50,2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="4">
+      <c r="B63" s="4" t="e">
+        <f>FLOOR(B33/A63, 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C63" s="4" t="e">
+        <f>B49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D63" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E63" s="4" t="e">
+        <f t="shared" ref="E63:E69" si="4">CEILING(LOG(D63, 2), 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F63" s="4" t="e">
+        <f>B49/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <f>E34+C34</f>
         <v>0</v>
       </c>
-      <c r="E50" s="4" t="e">
-        <f>FLOOR(B34/D50, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B51" s="4" t="e">
-        <f>CEILING(F35/A51, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C51" s="4" t="e">
-        <f>CEILING(LOG(B51,2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D51" s="4">
+      <c r="B64" s="4" t="e">
+        <f>FLOOR(B34/A64, 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C64" s="4" t="e">
+        <f>B50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D64" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="4" t="e">
+        <f>B50/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <f>E35+C35</f>
         <v>0</v>
       </c>
-      <c r="E51" s="4" t="e">
-        <f>FLOOR(B35/D51, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B52" s="4" t="e">
-        <f>CEILING(F36/A52, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C52" s="4" t="e">
-        <f>CEILING(LOG(B52,2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D52" s="4">
+      <c r="B65" s="4" t="e">
+        <f>FLOOR(B35/A65, 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C65" s="4" t="e">
+        <f>B51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D65" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E65" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F65" s="4" t="e">
+        <f>B51/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <f>E36+C36</f>
         <v>0</v>
       </c>
-      <c r="E52" s="4" t="e">
-        <f>FLOOR(B36/D52, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B53" s="4" t="e">
-        <f>CEILING(F37/A53, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C53" s="4" t="e">
-        <f>CEILING(LOG(B53,2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="4">
+      <c r="B66" s="4" t="e">
+        <f>FLOOR(B36/A66, 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C66" s="4" t="e">
+        <f>B52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D66" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E66" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F66" s="4" t="e">
+        <f>B52/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <f>E37+C37</f>
         <v>0</v>
       </c>
-      <c r="E53" s="4" t="e">
-        <f>FLOOR(B37/D53, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B54" s="4" t="e">
-        <f>CEILING(F38/A54, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C54" s="4" t="e">
-        <f>CEILING(LOG(B54,2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="4">
+      <c r="B67" s="4" t="e">
+        <f>FLOOR(B37/A67, 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C67" s="4" t="e">
+        <f>B53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D67" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E67" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F67" s="4" t="e">
+        <f>B53/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <f>E38+C38</f>
         <v>0</v>
       </c>
-      <c r="E54" s="4" t="e">
-        <f>FLOOR(B38/D54, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B55" s="4" t="e">
-        <f>CEILING(F39/A55, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C55" s="4" t="e">
-        <f>CEILING(LOG(B55,2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="4">
+      <c r="B68" s="4" t="e">
+        <f>FLOOR(B38/A68, 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C68" s="4" t="e">
+        <f>B54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D68" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E68" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F68" s="4" t="e">
+        <f>B54/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <f>E39+C39</f>
         <v>0</v>
       </c>
-      <c r="E55" s="4" t="e">
-        <f>FLOOR(B39/D55, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B69" s="4" t="e">
+        <f>FLOOR(B39/A69, 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C69" s="4" t="e">
+        <f>B55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D69" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E69" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F69" s="4" t="e">
+        <f>B55/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="C72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f>E30+D30</f>
+        <v>9</v>
+      </c>
+      <c r="B73" s="4">
+        <f>FLOOR(B30/A73, 1)</f>
+        <v>56</v>
+      </c>
+      <c r="C73" s="4">
         <f>B46</f>
         <v>10000</v>
       </c>
-      <c r="B59" s="4">
-        <f>FLOOR(A59/E46, 1)</f>
-        <v>312</v>
-      </c>
-      <c r="C59" s="4">
-        <f>CEILING(LOG(B59, 2), 1) +1</f>
-        <v>10</v>
-      </c>
-      <c r="D59" s="4">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4" t="e">
+        <f>CEILING(LOG(D73, 2), 1) +1</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F73" s="4">
         <f>B46/2</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <f>B47</f>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" ref="A74:A82" si="5">E31+D31</f>
+        <v>16</v>
+      </c>
+      <c r="B74" s="4">
+        <f>FLOOR(B31/A74, 1)</f>
+        <v>32</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" ref="C74:C82" si="6">B47</f>
         <v>7500</v>
       </c>
-      <c r="B60" s="4">
-        <f>FLOOR(A60/E47, 1)</f>
-        <v>220</v>
-      </c>
-      <c r="C60" s="4">
-        <f>CEILING(LOG(B60, 2), 1) +1</f>
+      <c r="D74" s="4">
+        <f t="shared" ref="D74:D82" si="7">CEILING(C74/B74, 1)</f>
+        <v>235</v>
+      </c>
+      <c r="E74" s="4">
+        <f>CEILING(LOG(D74, 2), 1) +1</f>
         <v>9</v>
       </c>
-      <c r="D60" s="4">
-        <f>B47/2</f>
+      <c r="F74" s="4">
+        <f t="shared" ref="F74:F82" si="8">B47/2</f>
         <v>3750</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <f>B48</f>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B75" s="4">
+        <f t="shared" ref="B74:B82" si="9">FLOOR(B32/A75, 1)</f>
+        <v>113</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="B61" s="4">
-        <f>CEILING(A61/E48, 1)</f>
-        <v>45</v>
-      </c>
-      <c r="C61" s="4">
-        <f>CEILING(LOG(B61, 2), 1) +1</f>
-        <v>7</v>
-      </c>
-      <c r="D61" s="4">
-        <f>B48/2</f>
+      <c r="D75" s="4">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="E75" s="4">
+        <f>CEILING(LOG(D75, 2), 1) +1</f>
+        <v>6</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" si="8"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="e">
-        <f>B49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B62" s="4" t="e">
-        <f>FLOOR(A62/E49, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C62" s="4" t="e">
-        <f>CEILING(LOG(B62, 2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D62" s="4" t="e">
-        <f>B49/2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="e">
-        <f>B50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B63" s="4" t="e">
-        <f>FLOOR(A63/E50, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C63" s="4" t="e">
-        <f>CEILING(LOG(B63, 2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D63" s="4" t="e">
-        <f>B50/2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="e">
-        <f>B51</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B64" s="4" t="e">
-        <f>FLOOR(A64/E51, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C64" s="4" t="e">
-        <f>CEILING(LOG(B64, 2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D64" s="4" t="e">
-        <f>B51/2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="e">
-        <f>B52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B65" s="4" t="e">
-        <f>FLOOR(A65/E52, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C65" s="4" t="e">
-        <f>CEILING(LOG(B65, 2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D65" s="4" t="e">
-        <f>B52/2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="e">
-        <f>B53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B66" s="4" t="e">
-        <f>FLOOR(A66/E53, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C66" s="4" t="e">
-        <f>CEILING(LOG(B66, 2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D66" s="4" t="e">
-        <f>B53/2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="e">
-        <f>B54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B67" s="4" t="e">
-        <f>FLOOR(A67/E54, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C67" s="4" t="e">
-        <f>CEILING(LOG(B67, 2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D67" s="4" t="e">
-        <f>B54/2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="e">
-        <f>B55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B68" s="4" t="e">
-        <f>FLOOR(A68/E55, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C68" s="4" t="e">
-        <f>CEILING(LOG(B68, 2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D68" s="4" t="e">
-        <f>B55/2</f>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B76" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C76" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D76" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E76" s="4" t="e">
+        <f t="shared" ref="E76:E82" si="10">CEILING(LOG(D76, 2), 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F76" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B77" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C77" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D77" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E77" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F77" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B78" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C78" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D78" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E78" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F78" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B79" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C79" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D79" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E79" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F79" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B80" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C80" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D80" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E80" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F80" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B81" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C81" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D81" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E81" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F81" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B82" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C82" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D82" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E82" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F82" s="4" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A71:F71"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
+++ b/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\Nam3_HK1\CSDL_SQL_Plus\Baitap\!TieuLuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17183960-D10E-4EDE-8909-07A4D6B2B713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDFAFDF-7F6C-4AC2-8E84-58CCF45D0BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{88E02BB5-18DC-4D8D-A50A-9D70CEF122C2}"/>
   </bookViews>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7EAA01-9FA6-4241-AC58-07A4C2D419DD}">
   <dimension ref="A28:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -659,11 +659,11 @@
         <v>3</v>
       </c>
       <c r="B46" s="4">
-        <f>CEILING(E30/A46, 1)</f>
+        <f t="shared" ref="B46:B55" si="0">CEILING(E30/A46, 1)</f>
         <v>10000</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" ref="C46:C55" si="0">CEILING(LOG(B46,2), 1)</f>
+        <f t="shared" ref="C46:C55" si="1">CEILING(LOG(B46,2), 1)</f>
         <v>14</v>
       </c>
     </row>
@@ -673,123 +673,123 @@
         <v>4</v>
       </c>
       <c r="B47" s="4">
-        <f>CEILING(E31/A47, 1)</f>
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <f t="shared" ref="A48:A55" si="1">FLOOR(B32/A32, 1)</f>
+        <f t="shared" ref="A48:A55" si="2">FLOOR(B32/A32, 1)</f>
         <v>10</v>
       </c>
       <c r="B48" s="4">
-        <f>CEILING(E32/A48, 1)</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B49" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C49" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B49" s="4" t="e">
-        <f>CEILING(E33/A49, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C49" s="4" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B50" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C50" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B50" s="4" t="e">
-        <f>CEILING(E34/A50, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C50" s="4" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B51" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B51" s="4" t="e">
-        <f>CEILING(E35/A51, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C51" s="4" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B52" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C52" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B52" s="4" t="e">
-        <f>CEILING(E36/A52, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C52" s="4" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B53" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C53" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B53" s="4" t="e">
-        <f>CEILING(E37/A53, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C53" s="4" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B54" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C54" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B54" s="4" t="e">
-        <f>CEILING(E38/A54, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C54" s="4" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B55" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C55" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B55" s="4" t="e">
-        <f>CEILING(E39/A55, 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C55" s="4" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -815,15 +815,15 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <f>D30+C30</f>
+        <f t="shared" ref="A59:A68" si="3">D30+C30</f>
         <v>16</v>
       </c>
       <c r="B59" s="4">
-        <f>FLOOR(B30/A59, 1)</f>
+        <f t="shared" ref="B59:B68" si="4">FLOOR(B30/A59, 1)</f>
         <v>32</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" ref="C59:C68" si="2">B46</f>
+        <f t="shared" ref="C59:C68" si="5">B46</f>
         <v>10000</v>
       </c>
       <c r="D59" s="4">
@@ -835,25 +835,25 @@
         <v>10</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" ref="F59:F68" si="3">B46/2</f>
+        <f t="shared" ref="F59:F68" si="6">B46/2</f>
         <v>5000</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <f>D31+C31</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B60" s="4">
-        <f>FLOOR(B31/A60, 1)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7500</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" ref="D60:D68" si="4">CEILING(C60/B60, 1)</f>
+        <f t="shared" ref="D60:D68" si="7">CEILING(C60/B60, 1)</f>
         <v>221</v>
       </c>
       <c r="E60" s="4">
@@ -861,25 +861,25 @@
         <v>9</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3750</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <f>D32+C32</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B61" s="4">
-        <f>FLOOR(B32/A61, 1)</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="E61" s="4">
@@ -887,189 +887,189 @@
         <v>7</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <f>D33+C33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B62" s="4" t="e">
-        <f>FLOOR(B33/A62, 1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C62" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="4" t="e">
-        <f t="shared" ref="E62:E68" si="5">CEILING(LOG(D62, 2), 1)</f>
+        <f t="shared" ref="E62:E68" si="8">CEILING(LOG(D62, 2), 1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <f>D34+C34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B63" s="4" t="e">
-        <f>FLOOR(B34/A63, 1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <f>D35+C35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B64" s="4" t="e">
-        <f>FLOOR(B35/A64, 1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C64" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D64" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E64" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F64" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <f>D36+C36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B65" s="4" t="e">
-        <f>FLOOR(B36/A65, 1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C65" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D65" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E65" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F65" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <f>D37+C37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B66" s="4" t="e">
-        <f>FLOOR(B37/A66, 1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C66" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D66" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E66" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F66" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <f>D38+C38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B67" s="4" t="e">
-        <f>FLOOR(B38/A67, 1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C67" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D67" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E67" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F67" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <f>D39+C39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B68" s="4" t="e">
-        <f>FLOOR(B39/A68, 1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C68" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D68" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E68" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F68" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
+++ b/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\Nam3_HK1\CSDL_SQL_Plus\Baitap\!TieuLuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDFAFDF-7F6C-4AC2-8E84-58CCF45D0BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A24693-16D4-44EF-9323-B578FA4FAE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{88E02BB5-18DC-4D8D-A50A-9D70CEF122C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{88E02BB5-18DC-4D8D-A50A-9D70CEF122C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Record Size (R)</t>
   </si>
@@ -50,21 +50,12 @@
     <t>SSN Field (Vssn)</t>
   </si>
   <si>
-    <t>Linear search = b/2</t>
-  </si>
-  <si>
     <t>Blocking factor (bfr = [B/R]-)</t>
   </si>
   <si>
-    <t>binary search = [log2b]+</t>
-  </si>
-  <si>
     <t>Number of Block needed for the file (b = [r/bfr]+)</t>
   </si>
   <si>
-    <t>To perform a binary search on the index file = [log2bi]+ +1</t>
-  </si>
-  <si>
     <t>The blocking factor for the index (bfri = [B/Ri]-)</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>The ordering key field</t>
   </si>
   <si>
-    <t>Block Pointer</t>
-  </si>
-  <si>
     <t>Block Pointer (P)</t>
   </si>
   <si>
@@ -84,6 +72,15 @@
   </si>
   <si>
     <t>The total number of index entries (ri = b)</t>
+  </si>
+  <si>
+    <t>A binary search on the index file = [log2bi]+ +1</t>
+  </si>
+  <si>
+    <t>A binary search on the data file = [log2b]+</t>
+  </si>
+  <si>
+    <t>A Linear search on the data file = b/2</t>
   </si>
 </sst>
 </file>
@@ -489,42 +486,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7EAA01-9FA6-4241-AC58-07A4C2D419DD}">
-  <dimension ref="A28:F68"/>
+  <dimension ref="A28:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="42.88671875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="28.6640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="40.88671875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.6640625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="40.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="5" t="s">
-        <v>12</v>
-      </c>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -541,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>150</v>
       </c>
@@ -558,7 +552,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f>30+9+9+40+10+8+1+4+4</f>
         <v>115</v>
@@ -576,7 +570,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>100</v>
       </c>
@@ -593,67 +587,80 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>40</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C33" s="4">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>FLOOR(B30/A30, 1)</f>
         <v>3</v>
@@ -666,8 +673,12 @@
         <f t="shared" ref="C46:C55" si="1">CEILING(LOG(B46,2), 1)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D46" s="4">
+        <f>B46/2</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>FLOOR(B31/A31, 1)</f>
         <v>4</v>
@@ -680,8 +691,12 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D47" s="4">
+        <f>B47/2</f>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" ref="A48:A55" si="2">FLOOR(B32/A32, 1)</f>
         <v>10</v>
@@ -694,22 +709,30 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="e">
+      <c r="D48" s="4">
+        <f>B48/2</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B49" s="4" t="e">
+        <v>102</v>
+      </c>
+      <c r="B49" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C49" s="4" t="e">
+        <v>5883</v>
+      </c>
+      <c r="C49" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D49" s="4">
+        <f>B49/2</f>
+        <v>2941.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -722,8 +745,12 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D50" s="4" t="e">
+        <f>B50/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -736,8 +763,12 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D51" s="4" t="e">
+        <f>B51/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -750,8 +781,12 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D52" s="4" t="e">
+        <f>B52/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -764,8 +799,12 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D53" s="4" t="e">
+        <f>B53/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -778,8 +817,12 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D54" s="4" t="e">
+        <f>B54/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -792,28 +835,29 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D55" s="4" t="e">
+        <f>B55/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f t="shared" ref="A59:A68" si="3">D30+C30</f>
         <v>16</v>
@@ -834,12 +878,8 @@
         <f>CEILING(LOG(D59, 2), 1) +1</f>
         <v>10</v>
       </c>
-      <c r="F59" s="4">
-        <f t="shared" ref="F59:F68" si="6">B46/2</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -853,19 +893,15 @@
         <v>7500</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" ref="D60:D68" si="7">CEILING(C60/B60, 1)</f>
+        <f t="shared" ref="D60:D68" si="6">CEILING(C60/B60, 1)</f>
         <v>221</v>
       </c>
       <c r="E60" s="4">
         <f>CEILING(LOG(D60, 2), 1) +1</f>
         <v>9</v>
       </c>
-      <c r="F60" s="4">
-        <f t="shared" si="6"/>
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -879,45 +915,37 @@
         <v>3000</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="E61" s="4">
         <f>CEILING(LOG(D61, 2), 1) +1</f>
         <v>7</v>
       </c>
-      <c r="F61" s="4">
-        <f t="shared" si="6"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B62" s="4" t="e">
+        <v>15</v>
+      </c>
+      <c r="B62" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C62" s="4" t="e">
+        <v>273</v>
+      </c>
+      <c r="C62" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D62" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E62" s="4" t="e">
-        <f t="shared" ref="E62:E68" si="8">CEILING(LOG(D62, 2), 1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="4" t="e">
+        <v>5883</v>
+      </c>
+      <c r="D62" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" ref="E62:E68" si="7">CEILING(LOG(D62, 2), 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -931,19 +959,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E63" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E63" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -957,19 +981,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D64" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E64" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -983,19 +1003,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D65" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E65" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E65" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1009,19 +1025,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D66" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E66" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E66" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1035,19 +1047,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D67" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E67" s="4" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E67" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F67" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1061,15 +1069,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D68" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E68" s="4" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E68" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
+++ b/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\Nam3_HK1\CSDL_SQL_Plus\Baitap\!TieuLuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A24693-16D4-44EF-9323-B578FA4FAE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CB83A8-9D73-45CE-BC3D-72C29C31EA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{88E02BB5-18DC-4D8D-A50A-9D70CEF122C2}"/>
+    <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="13176" xr2:uid="{88E02BB5-18DC-4D8D-A50A-9D70CEF122C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Record Size (R)</t>
   </si>
@@ -74,13 +74,16 @@
     <t>The total number of index entries (ri = b)</t>
   </si>
   <si>
-    <t>A binary search on the index file = [log2bi]+ +1</t>
-  </si>
-  <si>
     <t>A binary search on the data file = [log2b]+</t>
   </si>
   <si>
     <t>A Linear search on the data file = b/2</t>
+  </si>
+  <si>
+    <t>A binary search on the index file = [log2bi]+</t>
+  </si>
+  <si>
+    <t>A binary search with support index = [log2bi]+ +1</t>
   </si>
 </sst>
 </file>
@@ -488,17 +491,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7EAA01-9FA6-4241-AC58-07A4C2D419DD}">
   <dimension ref="A28:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -654,9 +657,12 @@
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -674,8 +680,12 @@
         <v>14</v>
       </c>
       <c r="D46" s="4">
-        <f>B46/2</f>
+        <f t="shared" ref="D46:D55" si="2">B46/2</f>
         <v>5000</v>
+      </c>
+      <c r="E46" s="4">
+        <f>CEILING(LOG(D59, 2), 1)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,13 +702,17 @@
         <v>13</v>
       </c>
       <c r="D47" s="4">
-        <f>B47/2</f>
+        <f t="shared" si="2"/>
         <v>3750</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" ref="E47:E55" si="3">CEILING(LOG(D60, 2), 1)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f t="shared" ref="A48:A55" si="2">FLOOR(B32/A32, 1)</f>
+        <f t="shared" ref="A48:A55" si="4">FLOOR(B32/A32, 1)</f>
         <v>10</v>
       </c>
       <c r="B48" s="4">
@@ -710,13 +724,17 @@
         <v>12</v>
       </c>
       <c r="D48" s="4">
-        <f>B48/2</f>
+        <f t="shared" si="2"/>
         <v>1500</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="B49" s="4">
@@ -728,13 +746,17 @@
         <v>13</v>
       </c>
       <c r="D49" s="4">
-        <f>B49/2</f>
+        <f t="shared" si="2"/>
         <v>2941.5</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="B50" s="4" t="e">
@@ -746,13 +768,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="4" t="e">
-        <f>B50/2</f>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" s="4" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="B51" s="4" t="e">
@@ -764,13 +790,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D51" s="4" t="e">
-        <f>B51/2</f>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="4" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="B52" s="4" t="e">
@@ -782,13 +812,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D52" s="4" t="e">
-        <f>B52/2</f>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="4" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="B53" s="4" t="e">
@@ -800,13 +834,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D53" s="4" t="e">
-        <f>B53/2</f>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="4" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="B54" s="4" t="e">
@@ -818,13 +856,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D54" s="4" t="e">
-        <f>B54/2</f>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54" s="4" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="B55" s="4" t="e">
@@ -836,7 +878,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D55" s="4" t="e">
-        <f>B55/2</f>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" s="4" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -854,20 +900,20 @@
         <v>7</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f t="shared" ref="A59:A68" si="3">D30+C30</f>
+        <f t="shared" ref="A59:A68" si="5">D30+C30</f>
         <v>16</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" ref="B59:B68" si="4">FLOOR(B30/A59, 1)</f>
+        <f t="shared" ref="B59:B68" si="6">FLOOR(B30/A59, 1)</f>
         <v>32</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" ref="C59:C68" si="5">B46</f>
+        <f t="shared" ref="C59:C68" si="7">B46</f>
         <v>10000</v>
       </c>
       <c r="D59" s="4">
@@ -875,205 +921,205 @@
         <v>313</v>
       </c>
       <c r="E59" s="4">
-        <f>CEILING(LOG(D59, 2), 1) +1</f>
+        <f>E46 + 1</f>
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7500</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" ref="D60:D68" si="6">CEILING(C60/B60, 1)</f>
+        <f t="shared" ref="D60:D68" si="8">CEILING(C60/B60, 1)</f>
         <v>221</v>
       </c>
       <c r="E60" s="4">
-        <f>CEILING(LOG(D60, 2), 1) +1</f>
+        <f t="shared" ref="E60:E68" si="9">E47 + 1</f>
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3000</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="E61" s="4">
-        <f>CEILING(LOG(D61, 2), 1) +1</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>273</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5883</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" ref="E62:E68" si="7">CEILING(LOG(D62, 2), 1)</f>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B63" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B64" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C64" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D64" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E64" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B65" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C65" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D65" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E65" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B66" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C66" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D66" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E66" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B67" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C67" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D67" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E67" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B68" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C68" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D68" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E68" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
+++ b/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\Nam3_HK1\CSDL_SQL_Plus\Baitap\!TieuLuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5811CA66-86DD-4614-AE92-4E777BEBD098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A462E21E-5C90-4312-83CB-BDBFDDEC8767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{88E02BB5-18DC-4D8D-A50A-9D70CEF122C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{88E02BB5-18DC-4D8D-A50A-9D70CEF122C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,28 +546,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7EAA01-9FA6-4241-AC58-07A4C2D419DD}">
   <dimension ref="A29:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="50.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="50.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="42.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="40.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="3"/>
+    <col min="11" max="11" width="51.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="42.88671875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="40.88671875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>40</v>
       </c>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>40</v>
       </c>
@@ -627,7 +627,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>40</v>
       </c>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
@@ -665,7 +665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>15</v>
       </c>
@@ -690,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -712,10 +712,10 @@
       </c>
       <c r="F38" s="7">
         <f>CEILING(LOG(E43, 2), 1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>17</v>
       </c>
@@ -737,10 +737,10 @@
       </c>
       <c r="F39" s="8">
         <f>CEILING(LOG(E44, 2), 1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -748,7 +748,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="2" t="s">
         <v>9</v>
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>15</v>
       </c>
@@ -791,7 +791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>16</v>
       </c>
@@ -804,19 +804,19 @@
         <v>273</v>
       </c>
       <c r="D43" s="7">
-        <f>C38</f>
-        <v>5883</v>
+        <f>F31</f>
+        <v>500</v>
       </c>
       <c r="E43" s="7">
         <f>CEILING(D43/C43, 1)</f>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F43" s="7">
         <f>F38 + 1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>17</v>
       </c>
@@ -829,16 +829,16 @@
         <v>273</v>
       </c>
       <c r="D44" s="8">
-        <f>C39</f>
-        <v>5883</v>
+        <f>E32</f>
+        <v>600000</v>
       </c>
       <c r="E44" s="8">
         <f>CEILING(D44/C44, 1)</f>
-        <v>22</v>
+        <v>2198</v>
       </c>
       <c r="F44" s="8">
         <f>F39 + 1</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
+++ b/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/Single-Level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\Nam3_HK1\CSDL_SQL_Plus\Baitap\!TieuLuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F85696-DF80-4B42-B6A7-A12DE0E9D0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13EB35A-8DDB-4913-919D-39676AA0BE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{88E02BB5-18DC-4D8D-A50A-9D70CEF122C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Record Size (R)</t>
   </si>
@@ -198,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,9 +207,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7EAA01-9FA6-4241-AC58-07A4C2D419DD}">
-  <dimension ref="A29:G44"/>
+  <dimension ref="A29:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -567,7 +564,7 @@
     <col min="17" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,277 +574,305 @@
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>40</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4096</v>
+      </c>
+      <c r="C30" s="5">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>40</v>
+      </c>
+      <c r="B31" s="6">
+        <v>4096</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7">
+        <v>4096</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>40</v>
-      </c>
-      <c r="B30" s="6">
-        <v>4096</v>
-      </c>
-      <c r="C30" s="6">
-        <v>6</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>9</v>
       </c>
-      <c r="E30" s="6">
+      <c r="B35" s="5">
         <v>600000</v>
       </c>
-      <c r="F30" s="6">
+      <c r="C35" s="5">
         <v>0</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>40</v>
-      </c>
-      <c r="B31" s="7">
-        <v>4096</v>
-      </c>
-      <c r="C31" s="7">
-        <v>6</v>
-      </c>
-      <c r="D31" s="7">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <v>9</v>
       </c>
-      <c r="E31" s="7">
+      <c r="B36" s="6">
         <v>600000</v>
       </c>
-      <c r="F31" s="7">
+      <c r="C36" s="6">
         <v>500</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>40</v>
-      </c>
-      <c r="B32" s="8">
-        <v>4096</v>
-      </c>
-      <c r="C32" s="8">
-        <v>6</v>
-      </c>
-      <c r="D32" s="8">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>9</v>
       </c>
-      <c r="E32" s="8">
+      <c r="B37" s="7">
         <v>600000</v>
       </c>
-      <c r="F32" s="8">
+      <c r="C37" s="7">
         <v>0</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="5" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B52" s="5">
         <f>FLOOR(B30/A30, 1)</f>
         <v>102</v>
       </c>
-      <c r="C37" s="6">
-        <f>CEILING(E30/B37, 1)</f>
+      <c r="C52" s="5">
+        <f>CEILING(B35/B52, 1)</f>
         <v>5883</v>
       </c>
-      <c r="D37" s="6">
-        <f t="shared" ref="D37:D39" si="0">CEILING(LOG(C37,2), 1)</f>
-        <v>13</v>
-      </c>
-      <c r="E37" s="6">
-        <f>CEILING(C37/2,1)</f>
-        <v>2942</v>
-      </c>
-      <c r="F37" s="6">
-        <f>CEILING(LOG(E42, 2), 1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B53" s="6">
         <f>FLOOR(B31/A31, 1)</f>
         <v>102</v>
       </c>
-      <c r="C38" s="7">
-        <f>CEILING(E31/B38, 1)</f>
+      <c r="C53" s="6">
+        <f>CEILING(B36/B53, 1)</f>
         <v>5883</v>
       </c>
-      <c r="D38" s="7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E38" s="7">
-        <f t="shared" ref="E38:E39" si="1">CEILING(C38/2,1)</f>
-        <v>2942</v>
-      </c>
-      <c r="F38" s="7">
-        <f>CEILING(LOG(E43, 2), 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B54" s="7">
         <f>FLOOR(B32/A32, 1)</f>
         <v>102</v>
       </c>
-      <c r="C39" s="8">
-        <f>CEILING(E32/B39, 1)</f>
+      <c r="C54" s="7">
+        <f>CEILING(B37/B54, 1)</f>
         <v>5883</v>
       </c>
-      <c r="D39" s="8">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="5">
+        <f>A35+C30</f>
+        <v>15</v>
+      </c>
+      <c r="C57" s="5">
+        <f>FLOOR(B30/B57, 1)</f>
+        <v>273</v>
+      </c>
+      <c r="D57" s="5">
+        <f>C52</f>
+        <v>5883</v>
+      </c>
+      <c r="E57" s="5">
+        <f>CEILING(D57/C57, 1)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="6">
+        <f>A36+C31</f>
+        <v>15</v>
+      </c>
+      <c r="C58" s="6">
+        <f>FLOOR(B31/B58, 1)</f>
+        <v>273</v>
+      </c>
+      <c r="D58" s="6">
+        <f>C36</f>
+        <v>500</v>
+      </c>
+      <c r="E58" s="6">
+        <f>CEILING(D58/C58, 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="7">
+        <f>A37+C32</f>
+        <v>15</v>
+      </c>
+      <c r="C59" s="7">
+        <f>FLOOR(B32/B59, 1)</f>
+        <v>273</v>
+      </c>
+      <c r="D59" s="7">
+        <f>B37</f>
+        <v>600000</v>
+      </c>
+      <c r="E59" s="7">
+        <f>CEILING(D59/C59, 1)</f>
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="8">
-        <f t="shared" si="1"/>
+      <c r="E61" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="5">
+        <f>CEILING(C52/2,1)</f>
         <v>2942</v>
       </c>
-      <c r="F39" s="8">
-        <f>CEILING(LOG(E44, 2), 1)</f>
+      <c r="C62" s="5">
+        <f>CEILING(LOG(C52,2), 1)</f>
+        <v>13</v>
+      </c>
+      <c r="D62" s="5">
+        <f>CEILING(LOG(E57, 2), 1)</f>
+        <v>5</v>
+      </c>
+      <c r="E62" s="5">
+        <f>D62 + 1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="6">
+        <f>CEILING(C53/2,1)</f>
+        <v>2942</v>
+      </c>
+      <c r="C63" s="6">
+        <f>CEILING(LOG(C53,2), 1)</f>
+        <v>13</v>
+      </c>
+      <c r="D63" s="6">
+        <f>CEILING(LOG(E58, 2), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
+        <f>D63 + 1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="7">
+        <f>CEILING(C54/2,1)</f>
+        <v>2942</v>
+      </c>
+      <c r="C64" s="7">
+        <f>CEILING(LOG(C54,2), 1)</f>
+        <v>13</v>
+      </c>
+      <c r="D64" s="7">
+        <f>CEILING(LOG(E59, 2), 1)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="6">
-        <f>D30+C30</f>
-        <v>15</v>
-      </c>
-      <c r="C42" s="6">
-        <f>FLOOR(B30/B42, 1)</f>
-        <v>273</v>
-      </c>
-      <c r="D42" s="6">
-        <f>C37</f>
-        <v>5883</v>
-      </c>
-      <c r="E42" s="6">
-        <f>CEILING(D42/C42, 1)</f>
-        <v>22</v>
-      </c>
-      <c r="F42" s="6">
-        <f>F37 + 1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="7">
-        <f>D31+C31</f>
-        <v>15</v>
-      </c>
-      <c r="C43" s="7">
-        <f>FLOOR(B31/B43, 1)</f>
-        <v>273</v>
-      </c>
-      <c r="D43" s="7">
-        <f>F31</f>
-        <v>500</v>
-      </c>
-      <c r="E43" s="7">
-        <f>CEILING(D43/C43, 1)</f>
-        <v>2</v>
-      </c>
-      <c r="F43" s="7">
-        <f>F38 + 1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="8">
-        <f>D32+C32</f>
-        <v>15</v>
-      </c>
-      <c r="C44" s="8">
-        <f>FLOOR(B32/B44, 1)</f>
-        <v>273</v>
-      </c>
-      <c r="D44" s="8">
-        <f>E32</f>
-        <v>600000</v>
-      </c>
-      <c r="E44" s="8">
-        <f>CEILING(D44/C44, 1)</f>
-        <v>2198</v>
-      </c>
-      <c r="F44" s="8">
-        <f>F39 + 1</f>
+      <c r="E64" s="7">
+        <f>D64 + 1</f>
         <v>13</v>
       </c>
     </row>
